--- a/arch/SIR.xlsx
+++ b/arch/SIR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Параметр</t>
   </si>
@@ -43,10 +43,13 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.0000</t>
+    <t>0.99</t>
   </si>
   <si>
-    <t>1.0000</t>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>β (скорость заражения)</t>
@@ -70,9 +73,6 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>0.2</t>
   </si>
   <si>
@@ -85,7 +85,7 @@
     <t>Выбранная модель:</t>
   </si>
   <si>
-    <t>Рунге-Кутта 4-го порядка</t>
+    <t>Метод Эйлера</t>
   </si>
   <si>
     <t>SIR</t>
@@ -188,7 +188,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Модель SIR (Рунге-Кутта 4-го порядка)</a:t>
+              <a:t>Модель SIR (Метод Эйлера)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -535,307 +535,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9048375</c:v>
+                  <c:v>0.01197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8187309014062499</c:v>
+                  <c:v>0.01431742473</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7408184220011776</c:v>
+                  <c:v>0.01710997646609069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6703202889174906</c:v>
+                  <c:v>0.02042552006141341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6065309344233799</c:v>
+                  <c:v>0.02435274342208159</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.548811934376315</c:v>
+                  <c:v>0.02899144155304181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.496585618671229</c:v>
+                  <c:v>0.03445219113731846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4493292897344282</c:v>
+                  <c:v>0.04085510775902428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4065699912000756</c:v>
+                  <c:v>0.04832729814752908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3678797744124984</c:v>
+                  <c:v>0.0569985482248455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3328714153799691</c:v>
+                  <c:v>0.06699474753052022</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3011945393138727</c:v>
+                  <c:v>0.07842857817344592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2725321139664163</c:v>
+                  <c:v>0.091387142079425</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2465972766710872</c:v>
+                  <c:v>0.1059165233507623</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2231304633298749</c:v>
+                  <c:v>0.122003836826315</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2018968106132457</c:v>
+                  <c:v>0.1395581187446282</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1826838053732627</c:v>
+                  <c:v>0.1583924124176485</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1652991577444296</c:v>
+                  <c:v>0.1782104077544135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1495688766455753</c:v>
+                  <c:v>0.1986016755460103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1353355284217908</c:v>
+                  <c:v>0.2190494531835805</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1224566611983521</c:v>
+                  <c:v>0.2389536781707827</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1108033791770639</c:v>
+                  <c:v>0.2576693909886507</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1002590526061266</c:v>
+                  <c:v>0.2745571144919757</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.09071815051249604</c:v>
+                  <c:v>0.2890383217624617</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.08208518451435064</c:v>
+                  <c:v>0.3006469110973887</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.07427375314300375</c:v>
+                  <c:v>0.3090677536087265</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.06720567710953265</c:v>
+                  <c:v>0.3141560649203605</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.06081021686159675</c:v>
+                  <c:v>0.3159357247873378</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.05502336459950505</c:v>
+                  <c:v>0.3145791950724982</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.04978720366580465</c:v>
+                  <c:v>0.3103749065020269</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.04504932889695751</c:v>
+                  <c:v>0.303689154468562</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0407623221358008</c:v>
+                  <c:v>0.2949288118178686</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.03688327765555265</c:v>
+                  <c:v>0.2845092764158026</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.03337337274565613</c:v>
+                  <c:v>0.2728298894757884</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.03019747916174763</c:v>
+                  <c:v>0.2602572196320816</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.02732381155101782</c:v>
+                  <c:v>0.247115389197618</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.02472360933429409</c:v>
+                  <c:v>0.2336820203069796</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.02237084886101932</c:v>
+                  <c:v>0.2201882472675392</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.02024198295628257</c:v>
+                  <c:v>0.2068213909155557</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.01831570525320533</c:v>
+                  <c:v>0.1937291658987836</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.01657273695204718</c:v>
+                  <c:v>0.181024589690102</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.01499563387184799</c:v>
+                  <c:v>0.1687910275471744</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.01356861186351826</c:v>
+                  <c:v>0.1570870190148655</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0122773888370562</c:v>
+                  <c:v>0.1459506870790629</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.01110904182184984</c:v>
+                  <c:v>0.1354036382605216</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.01005187762947806</c:v>
+                  <c:v>0.1254543313321102</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.00909531582456285</c:v>
+                  <c:v>0.1161009341852511</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.008229782832407887</c:v>
+                  <c:v>0.1073337111989271</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.007446616123618872</c:v>
+                  <c:v>0.09913699380538224</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.00673797751675499</c:v>
+                  <c:v>0.0914907895025079</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.006096774731316794</c:v>
+                  <c:v>0.08437208256718016</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.00551659040594786</c:v>
+                  <c:v>0.07775587531179307</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.004991617871441846</c:v>
+                  <c:v>0.07161601325262579</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.004516603035750761</c:v>
+                  <c:v>0.06592583184447652</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.004086791799361129</c:v>
+                  <c:v>0.06065865694914661</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.003697882474754425</c:v>
+                  <c:v>0.05578818618767553</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.003345982733750608</c:v>
+                  <c:v>0.05128877387957471</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.003027570651850066</c:v>
+                  <c:v>0.04713563841560175</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.002739459459693384</c:v>
+                  <c:v>0.04330500761653349</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.002478765648860312</c:v>
+                  <c:v>0.0397742148483942</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.002242880112800643</c:v>
+                  <c:v>0.036521756334884</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.002029442034066251</c:v>
+                  <c:v>0.03352731816943144</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.001836315256499422</c:v>
+                  <c:v>0.03077177992478368</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.001661566905902796</c:v>
+                  <c:v>0.02823720043525054</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.001503448045219821</c:v>
+                  <c:v>0.02590679023981647</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.00136037617061659</c:v>
+                  <c:v>0.02376487428379662</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.001230919373280288</c:v>
+                  <c:v>0.02179684774890379</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.001113782008420503</c:v>
+                  <c:v>0.01998912728816791</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.001007791728044187</c:v>
+                  <c:v>0.01832909945940099</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0009118877477241819</c:v>
+                  <c:v>0.01680506775910277</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0008251102299313795</c:v>
+                  <c:v>0.01540619934151199</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0007465906776755346</c:v>
+                  <c:v>0.01412247225142333</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0006755432423112365</c:v>
+                  <c:v>0.01294462379328342</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0006112568585147935</c:v>
+                  <c:v>0.01186410049379437</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0005530881277163794</c:v>
+                  <c:v>0.01087300998326915</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0005004548787625694</c:v>
+                  <c:v>0.009964075016123963</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0004528303413623264</c:v>
+                  <c:v>0.009130589768096106</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.000409737874002434</c:v>
+                  <c:v>0.008366378482892126</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0003707461935676774</c:v>
+                  <c:v>0.007665756490601421</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0003354650589222933</c:v>
+                  <c:v>0.007023493581574975</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.0003035413652526006</c:v>
+                  <c:v>0.006434779690292112</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.00027465561008175</c:v>
+                  <c:v>0.005895192822161818</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0002485186955873455</c:v>
+                  <c:v>0.005400669140711665</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.0002248690352185147</c:v>
+                  <c:v>0.004947475121968766</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0002034699356545328</c:v>
+                  <c:v>0.004532181676025413</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0001841072279028083</c:v>
+                  <c:v>0.004151640131986939</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0001665871238275073</c:v>
+                  <c:v>0.003802959981055138</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0001507342766562722</c:v>
+                  <c:v>0.003483488272868006</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0001363900260539697</c:v>
+                  <c:v>0.003190790561959745</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0001234108101996088</c:v>
+                  <c:v>0.002922633303972904</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0001116667289739885</c:v>
+                  <c:v>0.002676967604765706</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0001010402438780013</c:v>
+                  <c:v>0.002451914229586787</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.142500166996102e-05</c:v>
+                  <c:v>0.002245749783858275</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.272476994854335e-05</c:v>
+                  <c:v>0.00205689398167523</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.485247402831509e-05</c:v>
+                  <c:v>0.00188389792278456</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.772932546859556e-05</c:v>
+                  <c:v>0.001725433303464387</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.128403353369033e-05</c:v>
+                  <c:v>0.001580282491320008</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.545209169254052e-05</c:v>
+                  <c:v>0.001447329398496263</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.017513201684913e-05</c:v>
+                  <c:v>0.001325551092142391</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.540034101629573e-05</c:v>
+                  <c:v>0.001214010085129001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,304 +1180,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0951625</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18126909859375</c:v>
+                  <c:v>0.002197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2591815779988222</c:v>
+                  <c:v>0.003628742473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3296797110825093</c:v>
+                  <c:v>0.005339740119609069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39346906557662</c:v>
+                  <c:v>0.00738229212575041</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4511880656236849</c:v>
+                  <c:v>0.009817566467958569</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5034143813287709</c:v>
+                  <c:v>0.01271671062326275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5506707102655718</c:v>
+                  <c:v>0.0161619297369946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5934300087999244</c:v>
+                  <c:v>0.02024744051289702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6321202255875016</c:v>
+                  <c:v>0.02508017032764993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.667128584620031</c:v>
+                  <c:v>0.03078002515013448</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6988054606861273</c:v>
+                  <c:v>0.0374794999031865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7274678860335837</c:v>
+                  <c:v>0.0453223577205311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7534027233289128</c:v>
+                  <c:v>0.0544610719284736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7768695366701251</c:v>
+                  <c:v>0.06505272426354983</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7981031893867544</c:v>
+                  <c:v>0.07725310794618133</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8173161946267374</c:v>
+                  <c:v>0.09120891982064415</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8347008422555705</c:v>
+                  <c:v>0.107048161062409</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8504311233544248</c:v>
+                  <c:v>0.1248692018378504</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8646644715782094</c:v>
+                  <c:v>0.1447293693924514</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.877543338801648</c:v>
+                  <c:v>0.1666343147108095</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8891966208229363</c:v>
+                  <c:v>0.1905296825278877</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8997409473938736</c:v>
+                  <c:v>0.2162966216267528</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9092818494875041</c:v>
+                  <c:v>0.2437523330759504</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9179148154856496</c:v>
+                  <c:v>0.2726561652521965</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9257262468569964</c:v>
+                  <c:v>0.3027208563619354</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9327943228904676</c:v>
+                  <c:v>0.3336276317228081</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9391897831384035</c:v>
+                  <c:v>0.3650432382148441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9449766354004953</c:v>
+                  <c:v>0.3966368106935779</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.9502127963341956</c:v>
+                  <c:v>0.4280947302008277</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9549506711030428</c:v>
+                  <c:v>0.4591322208510304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9592376778641994</c:v>
+                  <c:v>0.4895011362978866</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9631167223444476</c:v>
+                  <c:v>0.5189940174796734</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9666266272543441</c:v>
+                  <c:v>0.5474449451212537</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.9698025208382526</c:v>
+                  <c:v>0.5747279340688326</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.9726761884489824</c:v>
+                  <c:v>0.6007536560320408</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.9752763906657061</c:v>
+                  <c:v>0.6254651949518026</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9776291511389809</c:v>
+                  <c:v>0.6488333969825006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.9797580170437176</c:v>
+                  <c:v>0.6708522217092545</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.9816842947467949</c:v>
+                  <c:v>0.6915343608008101</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.983427263047953</c:v>
+                  <c:v>0.7109072773906885</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9850043661281522</c:v>
+                  <c:v>0.7290097363596987</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.986431388136482</c:v>
+                  <c:v>0.7458888391144162</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.987722611162944</c:v>
+                  <c:v>0.7615975410159027</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.9888909581781504</c:v>
+                  <c:v>0.776192609723809</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.9899481223705222</c:v>
+                  <c:v>0.7897329735498612</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.9909046841754374</c:v>
+                  <c:v>0.8022784066830722</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.9917702171675924</c:v>
+                  <c:v>0.8138885001015973</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.9925533838763814</c:v>
+                  <c:v>0.82462187122149</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.9932620224832452</c:v>
+                  <c:v>0.8345355706020282</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.9939032252686835</c:v>
+                  <c:v>0.843684649552279</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.9944834095940523</c:v>
+                  <c:v>0.852121857808997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.9950083821285584</c:v>
+                  <c:v>0.8598974453401763</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.9954833969642495</c:v>
+                  <c:v>0.8670590466654389</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.9959132082006391</c:v>
+                  <c:v>0.8736516298498865</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.9963021175252458</c:v>
+                  <c:v>0.8797174955448012</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.9966540172662496</c:v>
+                  <c:v>0.8852963141635687</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.9969724293481501</c:v>
+                  <c:v>0.8904251915515261</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.9972605405403068</c:v>
+                  <c:v>0.8951387553930863</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.9975212343511398</c:v>
+                  <c:v>0.8994692561547396</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.9977571198871995</c:v>
+                  <c:v>0.903446677639579</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.9979705579659339</c:v>
+                  <c:v>0.9070988532730674</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.9981636847435007</c:v>
+                  <c:v>0.9104515850900106</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.9983384330940973</c:v>
+                  <c:v>0.913528763082489</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.9984965519547803</c:v>
+                  <c:v>0.916352483126014</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.9986396238293835</c:v>
+                  <c:v>0.9189431621499957</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.9987690806267199</c:v>
+                  <c:v>0.9213196495783754</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.9988862179915796</c:v>
+                  <c:v>0.9234993343532658</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.9989922082719559</c:v>
+                  <c:v>0.9254982470820826</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.9990881122522759</c:v>
+                  <c:v>0.9273311570280227</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.9991748897700687</c:v>
+                  <c:v>0.929011663803933</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.9992534093223245</c:v>
+                  <c:v>0.9305522837380842</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.9993244567576889</c:v>
+                  <c:v>0.9319645309632265</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.9993887431414853</c:v>
+                  <c:v>0.9332589933425548</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.9994469118722837</c:v>
+                  <c:v>0.9344454033919343</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.9994995451212375</c:v>
+                  <c:v>0.9355327043902611</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.9995471696586378</c:v>
+                  <c:v>0.9365291118918736</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.9995902621259977</c:v>
+                  <c:v>0.9374421708686832</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.9996292538064324</c:v>
+                  <c:v>0.9382788087169724</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.9996645349410778</c:v>
+                  <c:v>0.9390453843660326</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.9996964586347474</c:v>
+                  <c:v>0.9397477337241901</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.9997253443899183</c:v>
+                  <c:v>0.9403912116932193</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.9997514813044127</c:v>
+                  <c:v>0.9409807309754354</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.9997751309647815</c:v>
+                  <c:v>0.9415207978895066</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.9997965300643455</c:v>
+                  <c:v>0.9420155454017035</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.9998158927720973</c:v>
+                  <c:v>0.9424687635693061</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.9998334128761726</c:v>
+                  <c:v>0.9428839275825048</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.9998492657233438</c:v>
+                  <c:v>0.9432642235806104</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.9998636099739461</c:v>
+                  <c:v>0.9436125724078972</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.9998765891898005</c:v>
+                  <c:v>0.9439316514640932</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.9998883332710261</c:v>
+                  <c:v>0.9442239147944905</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.9998989597561221</c:v>
+                  <c:v>0.9444916115549671</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.9999085749983301</c:v>
+                  <c:v>0.9447368029779257</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.9999172752300515</c:v>
+                  <c:v>0.9449613779563115</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.9999251475259717</c:v>
+                  <c:v>0.9451670673544791</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.9999322706745315</c:v>
+                  <c:v>0.9453554571467575</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.9999387159664664</c:v>
+                  <c:v>0.9455280004771039</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.9999445479083076</c:v>
+                  <c:v>0.945686028726236</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.9999498248679832</c:v>
+                  <c:v>0.9458307616660856</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.9999545996589838</c:v>
+                  <c:v>0.9459633167752999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,22 +2256,31 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2297,31 +2306,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -2329,7 +2338,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -2383,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2397,13 +2406,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.98703</v>
       </c>
       <c r="C6">
-        <v>0.9048375</v>
+        <v>0.01197</v>
       </c>
       <c r="D6">
-        <v>0.0951625</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2411,13 +2420,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.9834855752699999</v>
       </c>
       <c r="C7">
-        <v>0.8187309014062499</v>
+        <v>0.01431742473</v>
       </c>
       <c r="D7">
-        <v>0.18126909859375</v>
+        <v>0.002197</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2425,13 +2434,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.9792612810609093</v>
       </c>
       <c r="C8">
-        <v>0.7408184220011776</v>
+        <v>0.01710997646609069</v>
       </c>
       <c r="D8">
-        <v>0.2591815779988222</v>
+        <v>0.003628742473</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2439,13 +2448,13 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.9742347398189775</v>
       </c>
       <c r="C9">
-        <v>0.6703202889174906</v>
+        <v>0.02042552006141341</v>
       </c>
       <c r="D9">
-        <v>0.3296797110825093</v>
+        <v>0.005339740119609069</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2453,13 +2462,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.9682649644521679</v>
       </c>
       <c r="C10">
-        <v>0.6065309344233799</v>
+        <v>0.02435274342208159</v>
       </c>
       <c r="D10">
-        <v>0.39346906557662</v>
+        <v>0.00738229212575041</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2467,13 +2476,13 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.9611909919789995</v>
       </c>
       <c r="C11">
-        <v>0.548811934376315</v>
+        <v>0.02899144155304181</v>
       </c>
       <c r="D11">
-        <v>0.4511880656236849</v>
+        <v>0.009817566467958569</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2481,13 +2490,13 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.9528310982394187</v>
       </c>
       <c r="C12">
-        <v>0.496585618671229</v>
+        <v>0.03445219113731846</v>
       </c>
       <c r="D12">
-        <v>0.5034143813287709</v>
+        <v>0.01271671062326275</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2495,13 +2504,13 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.9429829625039811</v>
       </c>
       <c r="C13">
-        <v>0.4493292897344282</v>
+        <v>0.04085510775902428</v>
       </c>
       <c r="D13">
-        <v>0.5506707102655718</v>
+        <v>0.0161619297369946</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2509,13 +2518,13 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.9314252613395738</v>
       </c>
       <c r="C14">
-        <v>0.4065699912000756</v>
+        <v>0.04832729814752908</v>
       </c>
       <c r="D14">
-        <v>0.5934300087999244</v>
+        <v>0.02024744051289702</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2523,13 +2532,13 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.9179212814475045</v>
       </c>
       <c r="C15">
-        <v>0.3678797744124984</v>
+        <v>0.0569985482248455</v>
       </c>
       <c r="D15">
-        <v>0.6321202255875016</v>
+        <v>0.02508017032764993</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2537,13 +2546,13 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.9022252273193453</v>
       </c>
       <c r="C16">
-        <v>0.3328714153799691</v>
+        <v>0.06699474753052022</v>
       </c>
       <c r="D16">
-        <v>0.667128584620031</v>
+        <v>0.03078002515013448</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2551,13 +2560,13 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.8840919219233676</v>
       </c>
       <c r="C17">
-        <v>0.3011945393138727</v>
+        <v>0.07842857817344592</v>
       </c>
       <c r="D17">
-        <v>0.6988054606861273</v>
+        <v>0.0374794999031865</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2565,13 +2574,13 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.8632905002000439</v>
       </c>
       <c r="C18">
-        <v>0.2725321139664163</v>
+        <v>0.091387142079425</v>
       </c>
       <c r="D18">
-        <v>0.7274678860335837</v>
+        <v>0.0453223577205311</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2579,13 +2588,13 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.8396224047207641</v>
       </c>
       <c r="C19">
-        <v>0.2465972766710872</v>
+        <v>0.1059165233507623</v>
       </c>
       <c r="D19">
-        <v>0.7534027233289128</v>
+        <v>0.0544610719284736</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2593,13 +2602,13 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.8129434389101351</v>
       </c>
       <c r="C20">
-        <v>0.2231304633298749</v>
+        <v>0.122003836826315</v>
       </c>
       <c r="D20">
-        <v>0.7768695366701251</v>
+        <v>0.06505272426354983</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2607,13 +2616,13 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.7831887733091905</v>
       </c>
       <c r="C21">
-        <v>0.2018968106132457</v>
+        <v>0.1395581187446282</v>
       </c>
       <c r="D21">
-        <v>0.7981031893867544</v>
+        <v>0.07725310794618133</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2621,13 +2630,13 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.7503986677617074</v>
       </c>
       <c r="C22">
-        <v>0.1826838053732627</v>
+        <v>0.1583924124176485</v>
       </c>
       <c r="D22">
-        <v>0.8173161946267374</v>
+        <v>0.09120891982064415</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2635,13 +2644,13 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.7147414311831775</v>
       </c>
       <c r="C23">
-        <v>0.1652991577444296</v>
+        <v>0.1782104077544135</v>
       </c>
       <c r="D23">
-        <v>0.8347008422555705</v>
+        <v>0.107048161062409</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2649,13 +2658,13 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.6765291226161393</v>
       </c>
       <c r="C24">
-        <v>0.1495688766455753</v>
+        <v>0.1986016755460103</v>
       </c>
       <c r="D24">
-        <v>0.8504311233544248</v>
+        <v>0.1248692018378504</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2663,13 +2672,13 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.636221177423968</v>
       </c>
       <c r="C25">
-        <v>0.1353355284217908</v>
+        <v>0.2190494531835805</v>
       </c>
       <c r="D25">
-        <v>0.8646644715782094</v>
+        <v>0.1447293693924514</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2677,13 +2686,13 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.5944120071184078</v>
       </c>
       <c r="C26">
-        <v>0.1224566611983521</v>
+        <v>0.2389536781707827</v>
       </c>
       <c r="D26">
-        <v>0.877543338801648</v>
+        <v>0.1666343147108095</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2691,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.5518009264834615</v>
       </c>
       <c r="C27">
-        <v>0.1108033791770639</v>
+        <v>0.2576693909886507</v>
       </c>
       <c r="D27">
-        <v>0.8891966208229363</v>
+        <v>0.1905296825278877</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2705,13 +2714,13 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.5091462638812715</v>
       </c>
       <c r="C28">
-        <v>0.1002590526061266</v>
+        <v>0.2745571144919757</v>
       </c>
       <c r="D28">
-        <v>0.8997409473938736</v>
+        <v>0.2162966216267528</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2719,13 +2728,13 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.4672093451615879</v>
       </c>
       <c r="C29">
-        <v>0.09071815051249604</v>
+        <v>0.2890383217624617</v>
       </c>
       <c r="D29">
-        <v>0.9092818494875041</v>
+        <v>0.2437523330759504</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2733,13 +2742,13 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.4266969236504147</v>
       </c>
       <c r="C30">
-        <v>0.08208518451435064</v>
+        <v>0.3006469110973887</v>
       </c>
       <c r="D30">
-        <v>0.9179148154856496</v>
+        <v>0.2726561652521965</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2747,13 +2756,13 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.388211390029338</v>
       </c>
       <c r="C31">
-        <v>0.07427375314300375</v>
+        <v>0.3090677536087265</v>
       </c>
       <c r="D31">
-        <v>0.9257262468569964</v>
+        <v>0.3027208563619354</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2761,13 +2770,13 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.3522163033568314</v>
       </c>
       <c r="C32">
-        <v>0.06720567710953265</v>
+        <v>0.3141560649203605</v>
       </c>
       <c r="D32">
-        <v>0.9327943228904676</v>
+        <v>0.3336276317228081</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2775,13 +2784,13 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.319021036997818</v>
       </c>
       <c r="C33">
-        <v>0.06081021686159675</v>
+        <v>0.3159357247873378</v>
       </c>
       <c r="D33">
-        <v>0.9391897831384035</v>
+        <v>0.3650432382148441</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2789,13 +2798,13 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.2887839942339239</v>
       </c>
       <c r="C34">
-        <v>0.05502336459950505</v>
+        <v>0.3145791950724982</v>
       </c>
       <c r="D34">
-        <v>0.9449766354004953</v>
+        <v>0.3966368106935779</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2803,13 +2812,13 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.2615303632971452</v>
       </c>
       <c r="C35">
-        <v>0.04978720366580465</v>
+        <v>0.3103749065020269</v>
       </c>
       <c r="D35">
-        <v>0.9502127963341956</v>
+        <v>0.4280947302008277</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2817,13 +2826,13 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.2371786246804075</v>
       </c>
       <c r="C36">
-        <v>0.04504932889695751</v>
+        <v>0.303689154468562</v>
       </c>
       <c r="D36">
-        <v>0.9549506711030428</v>
+        <v>0.4591322208510304</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2831,13 +2840,13 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.2155700518842447</v>
       </c>
       <c r="C37">
-        <v>0.0407623221358008</v>
+        <v>0.2949288118178686</v>
       </c>
       <c r="D37">
-        <v>0.9592376778641994</v>
+        <v>0.4895011362978866</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2845,13 +2854,13 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.1964967061045237</v>
       </c>
       <c r="C38">
-        <v>0.03688327765555265</v>
+        <v>0.2845092764158026</v>
       </c>
       <c r="D38">
-        <v>0.9631167223444476</v>
+        <v>0.5189940174796734</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2859,13 +2868,13 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.1797251654029577</v>
       </c>
       <c r="C39">
-        <v>0.03337337274565613</v>
+        <v>0.2728298894757884</v>
       </c>
       <c r="D39">
-        <v>0.9666266272543441</v>
+        <v>0.5474449451212537</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2873,13 +2882,13 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.1650148462990857</v>
       </c>
       <c r="C40">
-        <v>0.03019747916174763</v>
+        <v>0.2602572196320816</v>
       </c>
       <c r="D40">
-        <v>0.9698025208382526</v>
+        <v>0.5747279340688326</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2887,13 +2896,13 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.1521309547703411</v>
       </c>
       <c r="C41">
-        <v>0.02732381155101782</v>
+        <v>0.247115389197618</v>
       </c>
       <c r="D41">
-        <v>0.9726761884489824</v>
+        <v>0.6007536560320408</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2901,13 +2910,13 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.1408527847412177</v>
       </c>
       <c r="C42">
-        <v>0.02472360933429409</v>
+        <v>0.2336820203069796</v>
       </c>
       <c r="D42">
-        <v>0.9752763906657061</v>
+        <v>0.6254651949518026</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2915,13 +2924,13 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.1309783557499601</v>
       </c>
       <c r="C43">
-        <v>0.02237084886101932</v>
+        <v>0.2201882472675392</v>
       </c>
       <c r="D43">
-        <v>0.9776291511389809</v>
+        <v>0.6488333969825006</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2929,13 +2938,13 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.1223263873751897</v>
       </c>
       <c r="C44">
-        <v>0.02024198295628257</v>
+        <v>0.2068213909155557</v>
       </c>
       <c r="D44">
-        <v>0.9797580170437176</v>
+        <v>0.6708522217092545</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2943,13 +2952,13 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.1147364733004062</v>
       </c>
       <c r="C45">
-        <v>0.01831570525320533</v>
+        <v>0.1937291658987836</v>
       </c>
       <c r="D45">
-        <v>0.9816842947467949</v>
+        <v>0.6915343608008101</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2957,13 +2966,13 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.1080681329192094</v>
       </c>
       <c r="C46">
-        <v>0.01657273695204718</v>
+        <v>0.181024589690102</v>
       </c>
       <c r="D46">
-        <v>0.983427263047953</v>
+        <v>0.7109072773906885</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2971,13 +2980,13 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.1021992360931269</v>
       </c>
       <c r="C47">
-        <v>0.01499563387184799</v>
+        <v>0.1687910275471744</v>
       </c>
       <c r="D47">
-        <v>0.9850043661281522</v>
+        <v>0.7290097363596987</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2985,13 +2994,13 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.09702414187071831</v>
       </c>
       <c r="C48">
-        <v>0.01356861186351826</v>
+        <v>0.1570870190148655</v>
       </c>
       <c r="D48">
-        <v>0.986431388136482</v>
+        <v>0.7458888391144162</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2999,13 +3008,13 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.09245177190503436</v>
       </c>
       <c r="C49">
-        <v>0.0122773888370562</v>
+        <v>0.1459506870790629</v>
       </c>
       <c r="D49">
-        <v>0.987722611162944</v>
+        <v>0.7615975410159027</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3013,13 +3022,13 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.08840375201566938</v>
       </c>
       <c r="C50">
-        <v>0.01110904182184984</v>
+        <v>0.1354036382605216</v>
       </c>
       <c r="D50">
-        <v>0.9888909581781504</v>
+        <v>0.776192609723809</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3027,13 +3036,13 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.08481269511802862</v>
       </c>
       <c r="C51">
-        <v>0.01005187762947806</v>
+        <v>0.1254543313321102</v>
       </c>
       <c r="D51">
-        <v>0.9899481223705222</v>
+        <v>0.7897329735498612</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3041,13 +3050,13 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.0816206591316767</v>
       </c>
       <c r="C52">
-        <v>0.00909531582456285</v>
+        <v>0.1161009341852511</v>
       </c>
       <c r="D52">
-        <v>0.9909046841754374</v>
+        <v>0.8022784066830722</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3055,13 +3064,13 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.07877778869947562</v>
       </c>
       <c r="C53">
-        <v>0.008229782832407887</v>
+        <v>0.1073337111989271</v>
       </c>
       <c r="D53">
-        <v>0.9917702171675924</v>
+        <v>0.8138885001015973</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3069,13 +3078,13 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.07624113497312773</v>
       </c>
       <c r="C54">
-        <v>0.007446616123618872</v>
+        <v>0.09913699380538224</v>
       </c>
       <c r="D54">
-        <v>0.9925533838763814</v>
+        <v>0.82462187122149</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3083,13 +3092,13 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.07397363989546385</v>
       </c>
       <c r="C55">
-        <v>0.00673797751675499</v>
+        <v>0.0914907895025079</v>
       </c>
       <c r="D55">
-        <v>0.9932620224832452</v>
+        <v>0.8345355706020282</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3097,13 +3106,13 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.07194326788054078</v>
       </c>
       <c r="C56">
-        <v>0.006096774731316794</v>
+        <v>0.08437208256718016</v>
       </c>
       <c r="D56">
-        <v>0.9939032252686835</v>
+        <v>0.843684649552279</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3111,13 +3120,13 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.07012226687920986</v>
       </c>
       <c r="C57">
-        <v>0.00551659040594786</v>
+        <v>0.07775587531179307</v>
       </c>
       <c r="D57">
-        <v>0.9944834095940523</v>
+        <v>0.852121857808997</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3125,13 +3134,13 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.06848654140719783</v>
       </c>
       <c r="C58">
-        <v>0.004991617871441846</v>
+        <v>0.07161601325262579</v>
       </c>
       <c r="D58">
-        <v>0.9950083821285584</v>
+        <v>0.8598974453401763</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3139,13 +3148,13 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.06701512149008451</v>
       </c>
       <c r="C59">
-        <v>0.004516603035750761</v>
+        <v>0.06592583184447652</v>
       </c>
       <c r="D59">
-        <v>0.9954833969642495</v>
+        <v>0.8670590466654389</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3153,13 +3162,13 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.06568971320096677</v>
       </c>
       <c r="C60">
-        <v>0.004086791799361129</v>
+        <v>0.06065865694914661</v>
       </c>
       <c r="D60">
-        <v>0.9959132082006391</v>
+        <v>0.8736516298498865</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3167,13 +3176,13 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>0.06449431826752319</v>
       </c>
       <c r="C61">
-        <v>0.003697882474754425</v>
+        <v>0.05578818618767553</v>
       </c>
       <c r="D61">
-        <v>0.9963021175252458</v>
+        <v>0.8797174955448012</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3181,13 +3190,13 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.06341491195685646</v>
       </c>
       <c r="C62">
-        <v>0.003345982733750608</v>
+        <v>0.05128877387957471</v>
       </c>
       <c r="D62">
-        <v>0.9966540172662496</v>
+        <v>0.8852963141635687</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3195,13 +3204,13 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.06243917003287196</v>
       </c>
       <c r="C63">
-        <v>0.003027570651850066</v>
+        <v>0.04713563841560175</v>
       </c>
       <c r="D63">
-        <v>0.9969724293481501</v>
+        <v>0.8904251915515261</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3209,13 +3218,13 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.06155623699038004</v>
       </c>
       <c r="C64">
-        <v>0.002739459459693384</v>
+        <v>0.04330500761653349</v>
       </c>
       <c r="D64">
-        <v>0.9972605405403068</v>
+        <v>0.8951387553930863</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3223,13 +3232,13 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.06075652899686598</v>
       </c>
       <c r="C65">
-        <v>0.002478765648860312</v>
+        <v>0.0397742148483942</v>
       </c>
       <c r="D65">
-        <v>0.9975212343511398</v>
+        <v>0.8994692561547396</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3237,13 +3246,13 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.06003156602553676</v>
       </c>
       <c r="C66">
-        <v>0.002242880112800643</v>
+        <v>0.036521756334884</v>
       </c>
       <c r="D66">
-        <v>0.9977571198871995</v>
+        <v>0.903446677639579</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3251,13 +3260,13 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>0.05937382855750092</v>
       </c>
       <c r="C67">
-        <v>0.002029442034066251</v>
+        <v>0.03352731816943144</v>
       </c>
       <c r="D67">
-        <v>0.9979705579659339</v>
+        <v>0.9070988532730674</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3265,13 +3274,13 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.05877663498520554</v>
       </c>
       <c r="C68">
-        <v>0.001836315256499422</v>
+        <v>0.03077177992478368</v>
       </c>
       <c r="D68">
-        <v>0.9981636847435007</v>
+        <v>0.9104515850900106</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3279,13 +3288,13 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.05823403648226031</v>
       </c>
       <c r="C69">
-        <v>0.001661566905902796</v>
+        <v>0.02823720043525054</v>
       </c>
       <c r="D69">
-        <v>0.9983384330940973</v>
+        <v>0.913528763082489</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3293,13 +3302,13 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.05774072663416933</v>
       </c>
       <c r="C70">
-        <v>0.001503448045219821</v>
+        <v>0.02590679023981647</v>
       </c>
       <c r="D70">
-        <v>0.9984965519547803</v>
+        <v>0.916352483126014</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3307,13 +3316,13 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>0.05729196356620753</v>
       </c>
       <c r="C71">
-        <v>0.00136037617061659</v>
+        <v>0.02376487428379662</v>
       </c>
       <c r="D71">
-        <v>0.9986396238293835</v>
+        <v>0.9189431621499957</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3321,13 +3330,13 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.05688350267272069</v>
       </c>
       <c r="C72">
-        <v>0.001230919373280288</v>
+        <v>0.02179684774890379</v>
       </c>
       <c r="D72">
-        <v>0.9987690806267199</v>
+        <v>0.9213196495783754</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3335,13 +3344,13 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.0565115383585662</v>
       </c>
       <c r="C73">
-        <v>0.001113782008420503</v>
+        <v>0.01998912728816791</v>
       </c>
       <c r="D73">
-        <v>0.9988862179915796</v>
+        <v>0.9234993343532658</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3349,13 +3358,13 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.05617265345851633</v>
       </c>
       <c r="C74">
-        <v>0.001007791728044187</v>
+        <v>0.01832909945940099</v>
       </c>
       <c r="D74">
-        <v>0.9989922082719559</v>
+        <v>0.9254982470820826</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3363,13 +3372,13 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.05586377521287445</v>
       </c>
       <c r="C75">
-        <v>0.0009118877477241819</v>
+        <v>0.01680506775910277</v>
       </c>
       <c r="D75">
-        <v>0.9990881122522759</v>
+        <v>0.9273311570280227</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3377,13 +3386,13 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>0.05558213685455496</v>
       </c>
       <c r="C76">
-        <v>0.0008251102299313795</v>
+        <v>0.01540619934151199</v>
       </c>
       <c r="D76">
-        <v>0.9991748897700687</v>
+        <v>0.929011663803933</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3391,13 +3400,13 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>0.05532524401049242</v>
       </c>
       <c r="C77">
-        <v>0.0007465906776755346</v>
+        <v>0.01412247225142333</v>
       </c>
       <c r="D77">
-        <v>0.9992534093223245</v>
+        <v>0.9305522837380842</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3405,13 +3414,13 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>0.05509084524348999</v>
       </c>
       <c r="C78">
-        <v>0.0006755432423112365</v>
+        <v>0.01294462379328342</v>
       </c>
       <c r="D78">
-        <v>0.9993244567576889</v>
+        <v>0.9319645309632265</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3419,13 +3428,13 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0548769061636507</v>
       </c>
       <c r="C79">
-        <v>0.0006112568585147935</v>
+        <v>0.01186410049379437</v>
       </c>
       <c r="D79">
-        <v>0.9993887431414853</v>
+        <v>0.9332589933425548</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3433,13 +3442,13 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.05468158662479648</v>
       </c>
       <c r="C80">
-        <v>0.0005530881277163794</v>
+        <v>0.01087300998326915</v>
       </c>
       <c r="D80">
-        <v>0.9994469118722837</v>
+        <v>0.9344454033919343</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3447,13 +3456,13 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>0.05450322059361475</v>
       </c>
       <c r="C81">
-        <v>0.0005004548787625694</v>
+        <v>0.009964075016123963</v>
       </c>
       <c r="D81">
-        <v>0.9994995451212375</v>
+        <v>0.9355327043902611</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3461,13 +3470,13 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05434029834003021</v>
       </c>
       <c r="C82">
-        <v>0.0004528303413623264</v>
+        <v>0.009130589768096106</v>
       </c>
       <c r="D82">
-        <v>0.9995471696586378</v>
+        <v>0.9365291118918736</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3475,13 +3484,13 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>0.05419145064842459</v>
       </c>
       <c r="C83">
-        <v>0.000409737874002434</v>
+        <v>0.008366378482892126</v>
       </c>
       <c r="D83">
-        <v>0.9995902621259977</v>
+        <v>0.9374421708686832</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3489,13 +3498,13 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.05405543479242608</v>
       </c>
       <c r="C84">
-        <v>0.0003707461935676774</v>
+        <v>0.007665756490601421</v>
       </c>
       <c r="D84">
-        <v>0.9996292538064324</v>
+        <v>0.9382788087169724</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3503,13 +3512,13 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>0.05393112205239239</v>
       </c>
       <c r="C85">
-        <v>0.0003354650589222933</v>
+        <v>0.007023493581574975</v>
       </c>
       <c r="D85">
-        <v>0.9996645349410778</v>
+        <v>0.9390453843660326</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3517,13 +3526,13 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>0.05381748658551775</v>
       </c>
       <c r="C86">
-        <v>0.0003035413652526006</v>
+        <v>0.006434779690292112</v>
       </c>
       <c r="D86">
-        <v>0.9996964586347474</v>
+        <v>0.9397477337241901</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3531,13 +3540,13 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>0.05371359548461883</v>
       </c>
       <c r="C87">
-        <v>0.00027465561008175</v>
+        <v>0.005895192822161818</v>
       </c>
       <c r="D87">
-        <v>0.9997253443899183</v>
+        <v>0.9403912116932193</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3545,13 +3554,13 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>0.05361859988385281</v>
       </c>
       <c r="C88">
-        <v>0.0002485186955873455</v>
+        <v>0.005400669140711665</v>
       </c>
       <c r="D88">
-        <v>0.9997514813044127</v>
+        <v>0.9409807309754354</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3559,13 +3568,13 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>0.05353172698852454</v>
       </c>
       <c r="C89">
-        <v>0.0002248690352185147</v>
+        <v>0.004947475121968766</v>
       </c>
       <c r="D89">
-        <v>0.9997751309647815</v>
+        <v>0.9415207978895066</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3573,13 +3582,13 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>0.05345227292227102</v>
       </c>
       <c r="C90">
-        <v>0.0002034699356545328</v>
+        <v>0.004532181676025413</v>
       </c>
       <c r="D90">
-        <v>0.9997965300643455</v>
+        <v>0.9420155454017035</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3587,13 +3596,13 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>0.05337959629870695</v>
       </c>
       <c r="C91">
-        <v>0.0001841072279028083</v>
+        <v>0.004151640131986939</v>
       </c>
       <c r="D91">
-        <v>0.9998158927720973</v>
+        <v>0.9424687635693061</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3601,13 +3610,13 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>0.05331311243644006</v>
       </c>
       <c r="C92">
-        <v>0.0001665871238275073</v>
+        <v>0.003802959981055138</v>
       </c>
       <c r="D92">
-        <v>0.9998334128761726</v>
+        <v>0.9428839275825048</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3615,13 +3624,13 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.05325228814652168</v>
       </c>
       <c r="C93">
-        <v>0.0001507342766562722</v>
+        <v>0.003483488272868006</v>
       </c>
       <c r="D93">
-        <v>0.9998492657233438</v>
+        <v>0.9432642235806104</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3629,13 +3638,13 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>0.05319663703014314</v>
       </c>
       <c r="C94">
-        <v>0.0001363900260539697</v>
+        <v>0.003190790561959745</v>
       </c>
       <c r="D94">
-        <v>0.9998636099739461</v>
+        <v>0.9436125724078972</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3643,13 +3652,13 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>0.05314571523193401</v>
       </c>
       <c r="C95">
-        <v>0.0001234108101996088</v>
+        <v>0.002922633303972904</v>
       </c>
       <c r="D95">
-        <v>0.9998765891898005</v>
+        <v>0.9439316514640932</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3657,13 +3666,13 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.05309911760074391</v>
       </c>
       <c r="C96">
-        <v>0.0001116667289739885</v>
+        <v>0.002676967604765706</v>
       </c>
       <c r="D96">
-        <v>0.9998883332710261</v>
+        <v>0.9442239147944905</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3671,13 +3680,13 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.05305647421544626</v>
       </c>
       <c r="C97">
-        <v>0.0001010402438780013</v>
+        <v>0.002451914229586787</v>
       </c>
       <c r="D97">
-        <v>0.9998989597561221</v>
+        <v>0.9444916115549671</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3685,13 +3694,13 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>0.05301744723821609</v>
       </c>
       <c r="C98">
-        <v>9.142500166996102E-05</v>
+        <v>0.002245749783858275</v>
       </c>
       <c r="D98">
-        <v>0.9999085749983301</v>
+        <v>0.9447368029779257</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3699,13 +3708,13 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.05298172806201331</v>
       </c>
       <c r="C99">
-        <v>8.272476994854335E-05</v>
+        <v>0.00205689398167523</v>
       </c>
       <c r="D99">
-        <v>0.9999172752300515</v>
+        <v>0.9449613779563115</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3713,13 +3722,13 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.05294903472273646</v>
       </c>
       <c r="C100">
-        <v>7.485247402831509E-05</v>
+        <v>0.00188389792278456</v>
       </c>
       <c r="D100">
-        <v>0.9999251475259717</v>
+        <v>0.9451670673544791</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3727,13 +3736,13 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>0.05291910954977817</v>
       </c>
       <c r="C101">
-        <v>6.772932546859556E-05</v>
+        <v>0.001725433303464387</v>
       </c>
       <c r="D101">
-        <v>0.9999322706745315</v>
+        <v>0.9453554571467575</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3741,13 +3750,13 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>0.05289171703157611</v>
       </c>
       <c r="C102">
-        <v>6.128403353369033E-05</v>
+        <v>0.001580282491320008</v>
       </c>
       <c r="D102">
-        <v>0.9999387159664664</v>
+        <v>0.9455280004771039</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3755,13 +3764,13 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>0.05286664187526786</v>
       </c>
       <c r="C103">
-        <v>5.545209169254052E-05</v>
+        <v>0.001447329398496263</v>
       </c>
       <c r="D103">
-        <v>0.9999445479083076</v>
+        <v>0.945686028726236</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3769,13 +3778,13 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.0528436872417721</v>
       </c>
       <c r="C104">
-        <v>5.017513201684913E-05</v>
+        <v>0.001325551092142391</v>
       </c>
       <c r="D104">
-        <v>0.9999498248679832</v>
+        <v>0.9458307616660856</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3783,13 +3792,13 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>0.05282267313957125</v>
       </c>
       <c r="C105">
-        <v>4.540034101629573E-05</v>
+        <v>0.001214010085129001</v>
       </c>
       <c r="D105">
-        <v>0.9999545996589838</v>
+        <v>0.9459633167752999</v>
       </c>
     </row>
   </sheetData>
